--- a/src/main/resources/static/excel/xlsx/role.xlsx
+++ b/src/main/resources/static/excel/xlsx/role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A1DF8-D5E1-43C5-9E8E-5608C351249F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423DBAF7-95C3-4B8E-94D9-0071B091550C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/main/resources/static/excel/xlsx/role.xlsx
+++ b/src/main/resources/static/excel/xlsx/role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423DBAF7-95C3-4B8E-94D9-0071B091550C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA161B9F-88E6-4DAD-AFCA-E15CED8ABCC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -58,13 +58,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,18 +111,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -469,7 +459,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
